--- a/My_Professional_Reviews/UAS-5_Skor.xlsx
+++ b/My_Professional_Reviews/UAS-5_Skor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arlow\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\all-about-me\My_Professional_Reviews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADA0FF9-951C-4FF8-B23B-B444B7D6A753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3157FFE2-4AA8-44FF-8850-6D61C78F937D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8AFE3614-8754-EB4D-B44F-1C12FCF6F8C2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8AFE3614-8754-EB4D-B44F-1C12FCF6F8C2}"/>
   </bookViews>
   <sheets>
     <sheet name="UAS_1_My_Concepts" sheetId="2" r:id="rId1"/>
@@ -23,22 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>ID</t>
   </si>
@@ -233,9 +223,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -273,7 +263,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -379,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -521,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -535,7 +525,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -697,9 +687,27 @@
       <c r="AP4" s="4"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A5" s="2">
+        <v>13523161</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L5" s="4"/>
       <c r="Q5" s="4"/>
@@ -709,10 +717,28 @@
       <c r="AK5" s="4"/>
       <c r="AP5" s="4"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="6" spans="1:42" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>18224122</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1726,7 +1752,7 @@
   <dimension ref="A1:AP82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A4" sqref="A4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,10 +1884,10 @@
     </row>
     <row r="4" spans="1:42" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
-        <v>13523161</v>
+        <v>13523124</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -1888,9 +1914,27 @@
       <c r="AP4" s="4"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A5" s="2">
+        <v>13523161</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1900,10 +1944,28 @@
       <c r="AK5" s="4"/>
       <c r="AP5" s="4"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="6" spans="1:42" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>18224122</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L6" s="4"/>
       <c r="Q6" s="4"/>
@@ -2916,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118772BA-2C36-4B0B-9DD9-177CEE93B495}">
   <dimension ref="A1:AP82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3048,11 +3110,11 @@
       <c r="AP3" s="4"/>
     </row>
     <row r="4" spans="1:42" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>18224122</v>
+      <c r="A4" s="2">
+        <v>13523124</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -3079,9 +3141,27 @@
       <c r="AP4" s="4"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G5" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="A5" s="2">
+        <v>13523161</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L5" s="4"/>
       <c r="Q5" s="4"/>
@@ -3091,10 +3171,28 @@
       <c r="AK5" s="4"/>
       <c r="AP5" s="4"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+    <row r="6" spans="1:42" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>18224122</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L6" s="4"/>
       <c r="Q6" s="4"/>
@@ -4107,8 +4205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D1F948-1ADF-4B33-979B-06CD398BC5BF}">
   <dimension ref="A1:AP82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4227,7 +4325,7 @@
         <v>4</v>
       </c>
       <c r="G3" s="4">
-        <f>IF(COUNT(C3:F3)=0,"",AVERAGE(C3:F3))</f>
+        <f t="shared" ref="G3:G34" si="0">IF(COUNT(C3:F3)=0,"",AVERAGE(C3:F3))</f>
         <v>4.5</v>
       </c>
       <c r="L3" s="4"/>
@@ -4238,10 +4336,28 @@
       <c r="AK3" s="4"/>
       <c r="AP3" s="4"/>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G4" s="4" t="str">
-        <f>IF(COUNT(C4:F4)=0,"",AVERAGE(C4:F4))</f>
-        <v/>
+    <row r="4" spans="1:42" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>13523124</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L4" s="4"/>
       <c r="Q4" s="4"/>
@@ -4252,9 +4368,27 @@
       <c r="AP4" s="4"/>
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G5" s="4" t="str">
-        <f>IF(COUNT(C5:F5)=0,"",AVERAGE(C5:F5))</f>
-        <v/>
+      <c r="A5" s="2">
+        <v>13523161</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L5" s="4"/>
       <c r="Q5" s="4"/>
@@ -4264,10 +4398,28 @@
       <c r="AK5" s="4"/>
       <c r="AP5" s="4"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="G6" s="4" t="str">
-        <f>IF(COUNT(C6:F6)=0,"",AVERAGE(C6:F6))</f>
-        <v/>
+    <row r="6" spans="1:42" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>18224122</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>5</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="L6" s="4"/>
       <c r="Q6" s="4"/>
@@ -4279,7 +4431,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G7" s="4" t="str">
-        <f>IF(COUNT(C7:F7)=0,"",AVERAGE(C7:F7))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L7" s="4"/>
@@ -4292,7 +4444,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G8" s="4" t="str">
-        <f>IF(COUNT(C8:F8)=0,"",AVERAGE(C8:F8))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L8" s="4"/>
@@ -4305,7 +4457,7 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G9" s="4" t="str">
-        <f>IF(COUNT(C9:F9)=0,"",AVERAGE(C9:F9))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L9" s="4"/>
@@ -4318,7 +4470,7 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G10" s="4" t="str">
-        <f>IF(COUNT(C10:F10)=0,"",AVERAGE(C10:F10))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L10" s="4"/>
@@ -4331,7 +4483,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G11" s="4" t="str">
-        <f>IF(COUNT(C11:F11)=0,"",AVERAGE(C11:F11))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L11" s="4"/>
@@ -4344,7 +4496,7 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G12" s="4" t="str">
-        <f>IF(COUNT(C12:F12)=0,"",AVERAGE(C12:F12))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L12" s="4"/>
@@ -4357,7 +4509,7 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G13" s="4" t="str">
-        <f>IF(COUNT(C13:F13)=0,"",AVERAGE(C13:F13))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L13" s="4"/>
@@ -4370,7 +4522,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G14" s="4" t="str">
-        <f>IF(COUNT(C14:F14)=0,"",AVERAGE(C14:F14))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L14" s="4"/>
@@ -4383,7 +4535,7 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G15" s="4" t="str">
-        <f>IF(COUNT(C15:F15)=0,"",AVERAGE(C15:F15))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L15" s="4"/>
@@ -4396,7 +4548,7 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="G16" s="4" t="str">
-        <f>IF(COUNT(C16:F16)=0,"",AVERAGE(C16:F16))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L16" s="4"/>
@@ -4409,7 +4561,7 @@
     </row>
     <row r="17" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G17" s="4" t="str">
-        <f>IF(COUNT(C17:F17)=0,"",AVERAGE(C17:F17))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L17" s="4"/>
@@ -4422,7 +4574,7 @@
     </row>
     <row r="18" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G18" s="4" t="str">
-        <f>IF(COUNT(C18:F18)=0,"",AVERAGE(C18:F18))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L18" s="4"/>
@@ -4435,7 +4587,7 @@
     </row>
     <row r="19" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G19" s="4" t="str">
-        <f>IF(COUNT(C19:F19)=0,"",AVERAGE(C19:F19))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L19" s="4"/>
@@ -4448,7 +4600,7 @@
     </row>
     <row r="20" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G20" s="4" t="str">
-        <f>IF(COUNT(C20:F20)=0,"",AVERAGE(C20:F20))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L20" s="4"/>
@@ -4461,7 +4613,7 @@
     </row>
     <row r="21" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G21" s="4" t="str">
-        <f>IF(COUNT(C21:F21)=0,"",AVERAGE(C21:F21))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L21" s="4"/>
@@ -4474,7 +4626,7 @@
     </row>
     <row r="22" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G22" s="4" t="str">
-        <f>IF(COUNT(C22:F22)=0,"",AVERAGE(C22:F22))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L22" s="4"/>
@@ -4487,7 +4639,7 @@
     </row>
     <row r="23" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G23" s="4" t="str">
-        <f>IF(COUNT(C23:F23)=0,"",AVERAGE(C23:F23))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L23" s="4"/>
@@ -4500,7 +4652,7 @@
     </row>
     <row r="24" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G24" s="4" t="str">
-        <f>IF(COUNT(C24:F24)=0,"",AVERAGE(C24:F24))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L24" s="4"/>
@@ -4513,7 +4665,7 @@
     </row>
     <row r="25" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G25" s="4" t="str">
-        <f>IF(COUNT(C25:F25)=0,"",AVERAGE(C25:F25))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L25" s="4"/>
@@ -4526,7 +4678,7 @@
     </row>
     <row r="26" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G26" s="4" t="str">
-        <f>IF(COUNT(C26:F26)=0,"",AVERAGE(C26:F26))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L26" s="4"/>
@@ -4539,7 +4691,7 @@
     </row>
     <row r="27" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G27" s="4" t="str">
-        <f>IF(COUNT(C27:F27)=0,"",AVERAGE(C27:F27))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L27" s="4"/>
@@ -4552,7 +4704,7 @@
     </row>
     <row r="28" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G28" s="4" t="str">
-        <f>IF(COUNT(C28:F28)=0,"",AVERAGE(C28:F28))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L28" s="4"/>
@@ -4565,7 +4717,7 @@
     </row>
     <row r="29" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G29" s="4" t="str">
-        <f>IF(COUNT(C29:F29)=0,"",AVERAGE(C29:F29))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L29" s="4"/>
@@ -4578,7 +4730,7 @@
     </row>
     <row r="30" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G30" s="4" t="str">
-        <f>IF(COUNT(C30:F30)=0,"",AVERAGE(C30:F30))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L30" s="4"/>
@@ -4591,7 +4743,7 @@
     </row>
     <row r="31" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G31" s="4" t="str">
-        <f>IF(COUNT(C31:F31)=0,"",AVERAGE(C31:F31))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L31" s="4"/>
@@ -4604,7 +4756,7 @@
     </row>
     <row r="32" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G32" s="4" t="str">
-        <f>IF(COUNT(C32:F32)=0,"",AVERAGE(C32:F32))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L32" s="4"/>
@@ -4617,7 +4769,7 @@
     </row>
     <row r="33" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G33" s="4" t="str">
-        <f>IF(COUNT(C33:F33)=0,"",AVERAGE(C33:F33))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L33" s="4"/>
@@ -4630,7 +4782,7 @@
     </row>
     <row r="34" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G34" s="4" t="str">
-        <f>IF(COUNT(C34:F34)=0,"",AVERAGE(C34:F34))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L34" s="4"/>
@@ -4643,7 +4795,7 @@
     </row>
     <row r="35" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G35" s="4" t="str">
-        <f>IF(COUNT(C35:F35)=0,"",AVERAGE(C35:F35))</f>
+        <f t="shared" ref="G35:G66" si="1">IF(COUNT(C35:F35)=0,"",AVERAGE(C35:F35))</f>
         <v/>
       </c>
       <c r="L35" s="4"/>
@@ -4656,7 +4808,7 @@
     </row>
     <row r="36" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G36" s="4" t="str">
-        <f>IF(COUNT(C36:F36)=0,"",AVERAGE(C36:F36))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L36" s="4"/>
@@ -4669,7 +4821,7 @@
     </row>
     <row r="37" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G37" s="4" t="str">
-        <f>IF(COUNT(C37:F37)=0,"",AVERAGE(C37:F37))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L37" s="4"/>
@@ -4682,7 +4834,7 @@
     </row>
     <row r="38" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G38" s="4" t="str">
-        <f>IF(COUNT(C38:F38)=0,"",AVERAGE(C38:F38))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L38" s="4"/>
@@ -4695,7 +4847,7 @@
     </row>
     <row r="39" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G39" s="4" t="str">
-        <f>IF(COUNT(C39:F39)=0,"",AVERAGE(C39:F39))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L39" s="4"/>
@@ -4708,7 +4860,7 @@
     </row>
     <row r="40" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G40" s="4" t="str">
-        <f>IF(COUNT(C40:F40)=0,"",AVERAGE(C40:F40))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L40" s="4"/>
@@ -4721,7 +4873,7 @@
     </row>
     <row r="41" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G41" s="4" t="str">
-        <f>IF(COUNT(C41:F41)=0,"",AVERAGE(C41:F41))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L41" s="4"/>
@@ -4734,7 +4886,7 @@
     </row>
     <row r="42" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G42" s="4" t="str">
-        <f>IF(COUNT(C42:F42)=0,"",AVERAGE(C42:F42))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L42" s="4"/>
@@ -4747,7 +4899,7 @@
     </row>
     <row r="43" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G43" s="4" t="str">
-        <f>IF(COUNT(C43:F43)=0,"",AVERAGE(C43:F43))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L43" s="4"/>
@@ -4760,7 +4912,7 @@
     </row>
     <row r="44" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G44" s="4" t="str">
-        <f>IF(COUNT(C44:F44)=0,"",AVERAGE(C44:F44))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L44" s="4"/>
@@ -4773,7 +4925,7 @@
     </row>
     <row r="45" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G45" s="4" t="str">
-        <f>IF(COUNT(C45:F45)=0,"",AVERAGE(C45:F45))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L45" s="4"/>
@@ -4786,7 +4938,7 @@
     </row>
     <row r="46" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G46" s="4" t="str">
-        <f>IF(COUNT(C46:F46)=0,"",AVERAGE(C46:F46))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L46" s="4"/>
@@ -4799,7 +4951,7 @@
     </row>
     <row r="47" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G47" s="4" t="str">
-        <f>IF(COUNT(C47:F47)=0,"",AVERAGE(C47:F47))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L47" s="4"/>
@@ -4812,7 +4964,7 @@
     </row>
     <row r="48" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G48" s="4" t="str">
-        <f>IF(COUNT(C48:F48)=0,"",AVERAGE(C48:F48))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L48" s="4"/>
@@ -4825,7 +4977,7 @@
     </row>
     <row r="49" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G49" s="4" t="str">
-        <f>IF(COUNT(C49:F49)=0,"",AVERAGE(C49:F49))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L49" s="4"/>
@@ -4838,7 +4990,7 @@
     </row>
     <row r="50" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G50" s="4" t="str">
-        <f>IF(COUNT(C50:F50)=0,"",AVERAGE(C50:F50))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L50" s="4"/>
@@ -4851,7 +5003,7 @@
     </row>
     <row r="51" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G51" s="4" t="str">
-        <f>IF(COUNT(C51:F51)=0,"",AVERAGE(C51:F51))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L51" s="4"/>
@@ -4864,7 +5016,7 @@
     </row>
     <row r="52" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G52" s="4" t="str">
-        <f>IF(COUNT(C52:F52)=0,"",AVERAGE(C52:F52))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L52" s="4"/>
@@ -4877,7 +5029,7 @@
     </row>
     <row r="53" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G53" s="4" t="str">
-        <f>IF(COUNT(C53:F53)=0,"",AVERAGE(C53:F53))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L53" s="4"/>
@@ -4890,7 +5042,7 @@
     </row>
     <row r="54" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G54" s="4" t="str">
-        <f>IF(COUNT(C54:F54)=0,"",AVERAGE(C54:F54))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L54" s="4"/>
@@ -4903,7 +5055,7 @@
     </row>
     <row r="55" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G55" s="4" t="str">
-        <f>IF(COUNT(C55:F55)=0,"",AVERAGE(C55:F55))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L55" s="4"/>
@@ -4916,7 +5068,7 @@
     </row>
     <row r="56" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G56" s="4" t="str">
-        <f>IF(COUNT(C56:F56)=0,"",AVERAGE(C56:F56))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L56" s="4"/>
@@ -4929,7 +5081,7 @@
     </row>
     <row r="57" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G57" s="4" t="str">
-        <f>IF(COUNT(C57:F57)=0,"",AVERAGE(C57:F57))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L57" s="4"/>
@@ -4942,7 +5094,7 @@
     </row>
     <row r="58" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G58" s="4" t="str">
-        <f>IF(COUNT(C58:F58)=0,"",AVERAGE(C58:F58))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L58" s="4"/>
@@ -4955,7 +5107,7 @@
     </row>
     <row r="59" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G59" s="4" t="str">
-        <f>IF(COUNT(C59:F59)=0,"",AVERAGE(C59:F59))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L59" s="4"/>
@@ -4968,7 +5120,7 @@
     </row>
     <row r="60" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G60" s="4" t="str">
-        <f>IF(COUNT(C60:F60)=0,"",AVERAGE(C60:F60))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L60" s="4"/>
@@ -4981,7 +5133,7 @@
     </row>
     <row r="61" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G61" s="4" t="str">
-        <f>IF(COUNT(C61:F61)=0,"",AVERAGE(C61:F61))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L61" s="4"/>
@@ -4994,7 +5146,7 @@
     </row>
     <row r="62" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G62" s="4" t="str">
-        <f>IF(COUNT(C62:F62)=0,"",AVERAGE(C62:F62))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L62" s="4"/>
@@ -5007,7 +5159,7 @@
     </row>
     <row r="63" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G63" s="4" t="str">
-        <f>IF(COUNT(C63:F63)=0,"",AVERAGE(C63:F63))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L63" s="4"/>
@@ -5020,7 +5172,7 @@
     </row>
     <row r="64" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G64" s="4" t="str">
-        <f>IF(COUNT(C64:F64)=0,"",AVERAGE(C64:F64))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L64" s="4"/>
@@ -5033,7 +5185,7 @@
     </row>
     <row r="65" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G65" s="4" t="str">
-        <f>IF(COUNT(C65:F65)=0,"",AVERAGE(C65:F65))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L65" s="4"/>
@@ -5046,7 +5198,7 @@
     </row>
     <row r="66" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G66" s="4" t="str">
-        <f>IF(COUNT(C66:F66)=0,"",AVERAGE(C66:F66))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="L66" s="4"/>
@@ -5059,7 +5211,7 @@
     </row>
     <row r="67" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G67" s="4" t="str">
-        <f t="shared" ref="G67:G82" si="0">IF(COUNT(C67:F67)=0,"",AVERAGE(C67:F67))</f>
+        <f t="shared" ref="G67:G82" si="2">IF(COUNT(C67:F67)=0,"",AVERAGE(C67:F67))</f>
         <v/>
       </c>
       <c r="L67" s="4"/>
@@ -5072,7 +5224,7 @@
     </row>
     <row r="68" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G68" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L68" s="4"/>
@@ -5085,7 +5237,7 @@
     </row>
     <row r="69" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G69" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L69" s="4"/>
@@ -5098,7 +5250,7 @@
     </row>
     <row r="70" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G70" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L70" s="4"/>
@@ -5111,7 +5263,7 @@
     </row>
     <row r="71" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G71" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L71" s="4"/>
@@ -5124,7 +5276,7 @@
     </row>
     <row r="72" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G72" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L72" s="4"/>
@@ -5137,7 +5289,7 @@
     </row>
     <row r="73" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G73" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L73" s="4"/>
@@ -5150,7 +5302,7 @@
     </row>
     <row r="74" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G74" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L74" s="4"/>
@@ -5163,7 +5315,7 @@
     </row>
     <row r="75" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G75" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L75" s="4"/>
@@ -5176,7 +5328,7 @@
     </row>
     <row r="76" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G76" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L76" s="4"/>
@@ -5189,7 +5341,7 @@
     </row>
     <row r="77" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G77" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L77" s="4"/>
@@ -5202,7 +5354,7 @@
     </row>
     <row r="78" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G78" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L78" s="4"/>
@@ -5215,7 +5367,7 @@
     </row>
     <row r="79" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G79" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L79" s="4"/>
@@ -5228,7 +5380,7 @@
     </row>
     <row r="80" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G80" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L80" s="4"/>
@@ -5241,7 +5393,7 @@
     </row>
     <row r="81" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G81" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L81" s="4"/>
@@ -5254,7 +5406,7 @@
     </row>
     <row r="82" spans="7:42" x14ac:dyDescent="0.3">
       <c r="G82" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L82" s="4"/>
@@ -5267,7 +5419,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skor 1–5" prompt="Masukkan nilai antara 1 dan 5 (boleh desimal)." sqref="AL3:AO82 AG3:AJ82 AB3:AE82 W3:Z82 R3:U82 M3:P82 H3:K82 C3:F3 C5:F82" xr:uid="{7566A2DC-1040-427C-8A1C-1B8E6819BD6A}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Skor 1–5" prompt="Masukkan nilai antara 1 dan 5 (boleh desimal)." sqref="AL3:AO82 AG3:AJ82 AB3:AE82 W3:Z82 R3:U82 M3:P82 H3:K82 C3:F82" xr:uid="{7566A2DC-1040-427C-8A1C-1B8E6819BD6A}">
       <formula1>1</formula1>
       <formula2>5</formula2>
     </dataValidation>
